--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/wf.menu.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/wf.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A9A14-49A1-9D4E-B784-E6CAC26E09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF115713-5625-654E-9824-D380E9B20678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36080" yWindow="-10880" windowWidth="42540" windowHeight="18560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="38400" yWindow="-10880" windowWidth="42540" windowHeight="18560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统内置流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,6 +197,10 @@
   </si>
   <si>
     <t>执行规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置工作流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +726,7 @@
   <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -829,7 +829,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="13" t="s">
@@ -857,7 +857,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>A$5</f>
@@ -888,7 +888,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="15" t="str">
         <f t="shared" ref="B7:B8" si="0">A$5</f>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>36</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="13" t="s">
@@ -963,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>21</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/wf.menu.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/wf.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF115713-5625-654E-9824-D380E9B20678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FE8C4-BDEF-1F4C-BC4F-082D3D6F6615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-10880" windowWidth="42540" windowHeight="18560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -125,10 +125,6 @@
   </si>
   <si>
     <t>流程管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS-MENU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -172,10 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b9052d2a-971a-45ff-9c8e-bc6d4c2becb3</t>
   </si>
   <si>
@@ -188,19 +180,7 @@
     <t>8b46fd39-0588-47c4-a088-f9292d513a8c</t>
   </si>
   <si>
-    <t>1f635e32-474d-4e93-b497-07063c9272ae</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>framework.workflow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内置工作流</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -829,7 +809,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="13" t="s">
@@ -857,7 +837,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>A$5</f>
@@ -873,22 +853,22 @@
         <v>2</v>
       </c>
       <c r="F6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15" t="str">
         <f t="shared" ref="B7:B8" si="0">A$5</f>
@@ -904,22 +884,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="15" t="str">
         <f t="shared" si="0"/>
@@ -935,46 +915,18 @@
         <v>2</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="I8" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>92000</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
